--- a/模板/project.xlsx
+++ b/模板/project.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A2F8B-99A6-4A33-8DB2-3F6321F8734A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F8DDFE-A5EE-4E44-9F14-54E17F71AD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="3740" windowWidth="18340" windowHeight="10060" xr2:uid="{45A465E2-65FB-4E11-8EE1-627D3C4AF306}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{45A465E2-65FB-4E11-8EE1-627D3C4AF306}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,14 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LaborManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Supervisor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +105,106 @@
   </si>
   <si>
     <t>District</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubCompany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名,职位,电话,项目 多个联系人用分号(英文状态)隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府投资', '民营开发', '国企分包', '其他'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标', '履约', '预付款', '农民工工资支付', '业主支付', '质量', '资本金', '房屋质量', '其他'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中标价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期时间格式：xxxx-xx-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担保金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农民工工资百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开工时间：xxxx-xx-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间：xxxx-xx-xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工方负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设方负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名称,联系人（多个用英文状态下的分号隔开）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,6 +212,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,8 +254,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,15 +578,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5012FAF-68F4-410C-97AC-5C95A697CC8A}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="2"/>
+    <col min="9" max="10" width="8.6640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +604,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -510,10 +616,10 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -548,6 +654,77 @@
       </c>
       <c r="U1" t="s">
         <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/模板/project.xlsx
+++ b/模板/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F8DDFE-A5EE-4E44-9F14-54E17F71AD5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B544AA1-7B06-4B6D-B4C6-D4A8230F9F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{45A465E2-65FB-4E11-8EE1-627D3C4AF306}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,18 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>District</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SubCompany</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,91 +108,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名,职位,电话,项目 多个联系人用分号(英文状态)隔开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>政府投资', '民营开发', '国企分包', '其他'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投标', '履约', '预付款', '农民工工资支付', '业主支付', '质量', '资本金', '房屋质量', '其他'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中标价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延期时间格式：xxxx-xx-xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>担保金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农民工工资百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开工时间：xxxx-xx-xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间：xxxx-xx-xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工方负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设方负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名称,联系人（多个用英文状态下的分号隔开）</t>
+    <t>政府投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名,职位,电话,项目;123,测试,456,测试项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川杰欣建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>成都建工第七建筑工程有限公司</t>
+  </si>
+  <si>
+    <t>廖绿艳,13981922328,项目经理;李经理,13438852518,民工资料员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晓刚,13808379655,法定代表人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青羊区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川千艺建筑工程有限公司,万志刚,18715796666,总经理;四川华西德顿塑料管道有限公司,姜凌云,02837641926,法定代表人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞士银行</t>
+  </si>
+  <si>
+    <t>PID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -261,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,15 +549,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5012FAF-68F4-410C-97AC-5C95A697CC8A}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
     <col min="5" max="5" width="8.6640625" style="2"/>
-    <col min="9" max="10" width="8.6640625" style="2"/>
+    <col min="9" max="10" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.75" customWidth="1"/>
+    <col min="15" max="15" width="14.58203125" customWidth="1"/>
+    <col min="20" max="20" width="14.9140625" customWidth="1"/>
+    <col min="21" max="21" width="12.58203125" customWidth="1"/>
+    <col min="22" max="22" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
@@ -641,90 +615,87 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="F2">
+        <v>2345</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43497</v>
+      </c>
+      <c r="J2" s="2">
+        <v>43689</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="S2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="L2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" t="s">
-        <v>42</v>
+      <c r="V2">
+        <v>1.23123123123131E+16</v>
       </c>
     </row>
   </sheetData>

--- a/模板/project.xlsx
+++ b/模板/project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\csms\模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B544AA1-7B06-4B6D-B4C6-D4A8230F9F88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A723F2C-D39C-4344-B8C6-FBAB3C9FCC42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{45A465E2-65FB-4E11-8EE1-627D3C4AF306}"/>
   </bookViews>
@@ -108,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +170,10 @@
   </si>
   <si>
     <t>DID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5012FAF-68F4-410C-97AC-5C95A697CC8A}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -615,13 +615,13 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>36</v>
       </c>
       <c r="T1" t="s">
         <v>16</v>
@@ -635,13 +635,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D2">
         <v>123</v>
@@ -650,7 +650,7 @@
         <v>2345</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>23</v>
@@ -662,37 +662,37 @@
         <v>43689</v>
       </c>
       <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
       </c>
       <c r="V2">
         <v>1.23123123123131E+16</v>
